--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
@@ -67,21 +67,21 @@
     <t>hate</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>behind</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -100,13 +100,16 @@
     <t>great</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>important</t>
@@ -115,12 +118,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -134,9 +137,6 @@
   </si>
   <si>
     <t>netflix</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>media</t>
@@ -575,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9230769230769231</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -593,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,10 +628,10 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
@@ -699,13 +699,13 @@
         <v>27</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +749,13 @@
         <v>28</v>
       </c>
       <c r="K6">
-        <v>0.7192982456140351</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +799,13 @@
         <v>29</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +849,13 @@
         <v>30</v>
       </c>
       <c r="K8">
-        <v>0.6551724137931034</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="L8">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -875,13 +875,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K9">
-        <v>0.5833333333333334</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -925,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="K11">
-        <v>0.4242424242424243</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L11">
         <v>14</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1025,13 +1025,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>34</v>
@@ -1075,13 +1075,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5362318840579711</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="C13">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K13">
-        <v>0.3611111111111111</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1125,37 +1125,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>15</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K14">
-        <v>0.2542372881355932</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1175,13 +1175,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5319148936170213</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1193,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K15">
-        <v>0.2477231329690346</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L15">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>826</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1225,13 +1225,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5217391304347826</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1243,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K16">
-        <v>0.1368421052631579</v>
+        <v>0.2304189435336976</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>82</v>
+        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1275,13 +1275,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.358974358974359</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K17">
-        <v>0.02592592592592593</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>526</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1325,19 +1325,19 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.04040404040404041</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>14</v>
       </c>
       <c r="E18">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F18">
-        <v>0.86</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1349,13 +1349,13 @@
         <v>40</v>
       </c>
       <c r="K18">
-        <v>0.02435064935064935</v>
+        <v>0.04259259259259259</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>601</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1375,13 +1375,13 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>0.02409638554216868</v>
+        <v>0.02710843373493976</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1427,13 +1427,13 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>0.01670506912442396</v>
+        <v>0.01900921658986175</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
   </sheetData>
